--- a/data/trans_camb/P19C08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,89</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,55; 1,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 5,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 2,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 3,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 1,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 2,73</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>395,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>326,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>278,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>205,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>338,29%</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,66; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 1,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; -0,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; -0,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 1,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,87; -0,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,43; 0,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 0,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; -0,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 0,04</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,94%</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,3; 394,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 385,54</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 0,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 0,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 1,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 1,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 0,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 1,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 0,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 0,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 0,93</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,59%</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,37; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,9; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,97; 668,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 363,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,82; 626,81</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 2,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 0,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 1,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 0,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 1,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; -0,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 0,21</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,23%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,33%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,41%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,34%</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,89; 713,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,08; 230,43</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 1,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,89; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 0,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 0,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 0,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 0,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,67; 0,44</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,52%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,55%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,59%</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,96; —</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 1,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 0,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 0,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; -0,25</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 0,49</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 0,05</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 0,32</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 0,34</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 0,23</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>208,69%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,85%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,23%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,94%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,45%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,15%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,56%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,38%</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,04; 58,98</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1906,12 +1906,12 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 244,95</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,06; 106,03</t>
         </is>
       </c>
     </row>
@@ -1928,42 +1928,42 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 0,68</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 0,05</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 0,54</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 0,46</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 0,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 0,19</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 0,46</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; -0,05</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 0,26</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,63%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,61%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,93%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,75%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,98%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,28%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,46%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,48; 342,78</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,41; 50,28</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,05; 268,7</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,55; 144,21</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,73; 17,98</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,33; 64,15</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,08; 149,96</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,2; -15,72</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,94; 91,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,85</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 5,12</t>
+          <t>-0,26; 4,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,06</t>
+          <t>-0,27; 3,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,73</t>
+          <t>-0,03; 2,64</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>395,17%</t>
+          <t>366,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>278,6%</t>
+          <t>262,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>338,29%</t>
+          <t>320,54%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,44</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; -0,01</t>
+          <t>-1,18; -0,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 0,3</t>
+          <t>-1,44; 0,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,04</t>
+          <t>-1,06; 0,0</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-92,08%</t>
+          <t>-91,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-62,83%</t>
+          <t>-67,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-73,94%</t>
+          <t>-76,46%</t>
         </is>
       </c>
     </row>
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 385,54</t>
+          <t>-100,0; 315,62</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,39</t>
+          <t>-0,41; 1,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,06</t>
+          <t>-0,46; 1,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 0,93</t>
+          <t>-0,24; 0,9</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>92,98%</t>
+          <t>83,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,46%</t>
+          <t>88,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>91,59%</t>
+          <t>86,14%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-82,9; —</t>
+          <t>-82,6; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-52,82; 626,81</t>
+          <t>-55,58; 595,7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,24</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,18</t>
+          <t>-1,36; 0,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,45</t>
+          <t>-1,06; 0,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,21</t>
+          <t>-0,9; 0,14</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-62,25%</t>
+          <t>-75,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-21,33%</t>
+          <t>-24,75%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-41,34%</t>
+          <t>-52,62%</t>
         </is>
       </c>
     </row>
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-90,08; 230,43</t>
+          <t>-92,78; 163,25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,42</t>
+          <t>0,15; 1,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 0,12</t>
+          <t>-1,92; 0,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,44</t>
+          <t>-0,66; 0,44</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-71,52%</t>
+          <t>-72,22%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>1,7%</t>
         </is>
       </c>
     </row>
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-95,96; —</t>
+          <t>-95,59; —</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>-0,27</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,28</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,72</t>
+          <t>-1,71; 0,77</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,48</t>
+          <t>-1,45; 0,8</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 0,76</t>
+          <t>-1,44; 0,65</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,12; -0,25</t>
+          <t>-2,61; 0,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,49</t>
+          <t>-2,61; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,05</t>
+          <t>-2,22; 0,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,32</t>
+          <t>-1,47; 0,12</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,34</t>
+          <t>-1,46; 0,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,23</t>
+          <t>-1,32; 0,35</t>
         </is>
       </c>
     </row>
@@ -1818,17 +1818,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>208,69%</t>
+          <t>-16,01%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-14,85%</t>
+          <t>-12,55%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>71,23%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1838,27 +1838,27 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-48,94%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-65,45%</t>
+          <t>-62,88%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-42,15%</t>
+          <t>-70,82%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-42,56%</t>
+          <t>-70,53%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-40,38%</t>
+          <t>-43,84%</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-95,04; 58,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 244,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-84,06; 106,03</t>
+          <t>-93,88; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 0,68</t>
+          <t>0,43; 3,88</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 0,54</t>
+          <t>0,0; 1,82</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,46</t>
+          <t>-3,92; 0,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,0</t>
+          <t>-2,77; 1,6</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 0,19</t>
+          <t>-3,23; 0,26</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 0,46</t>
+          <t>-1,52; 0,96</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; -0,05</t>
+          <t>-1,47; 1,01</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 0,26</t>
+          <t>-1,73; 0,38</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>81,63%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-54,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-61,75%</t>
+          <t>-7,41%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-23,98%</t>
+          <t>-76,83%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>-13,88%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-59,28%</t>
+          <t>-9,46%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>-49,41%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 0,68</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 0,05</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,22; 0,49</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,29; 0,46</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 0,0</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 0,15</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 0,46</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; -0,05</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 0,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>81,63%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-54,61%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>31,07%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-61,75%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-30,04%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>36,46%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-59,28%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-7,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-22,48; 342,78</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-91,41; 50,28</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-46,05; 268,7</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-49,4; 246,07</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-42,55; 144,21</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-89,73; 17,98</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-64,33; 64,15</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-66,9; 51,63</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-20,08; 149,96</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-85,2; -15,72</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-42,94; 91,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-47,82; 68,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P19C08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C08-Edad-trans_camb.xlsx
@@ -685,22 +685,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 1,24</t>
+          <t>-0,56; 1,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,0</t>
+          <t>-1,59; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 4,72</t>
+          <t>-0,18; 4,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 2,46</t>
+          <t>-0,21; 2,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 3,05</t>
+          <t>-0,26; 3,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,41</t>
+          <t>-0,1; 1,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 2,64</t>
+          <t>-0,04; 2,73</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,66; —</t>
+          <t>-66,92; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,61</t>
+          <t>-0,51; 1,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; -0,16</t>
+          <t>-1,49; -0,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; -0,03</t>
+          <t>-1,42; -0,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,24</t>
+          <t>-0,82; 1,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; -0,15</t>
+          <t>-1,92; -0,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,25</t>
+          <t>-1,64; 0,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 0,98</t>
+          <t>-0,41; 1,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; -0,23</t>
+          <t>-1,32; -0,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,0</t>
+          <t>-1,12; -0,01</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-58,3; 394,96</t>
+          <t>-58,76; 395,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 315,62</t>
+          <t>-100,0; 143,8</t>
         </is>
       </c>
     </row>
@@ -1117,32 +1117,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,53</t>
+          <t>-0,73; 0,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,38</t>
+          <t>-0,87; 0,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,32</t>
+          <t>-0,49; 1,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,43</t>
+          <t>-0,27; 1,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 0,92</t>
+          <t>-0,55; 0,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,04</t>
+          <t>-0,35; 1,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,47</t>
+          <t>-0,55; 0,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 0,9</t>
+          <t>-0,22; 0,96</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-85,37; —</t>
+          <t>-61,21; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-82,6; —</t>
+          <t>-77,51; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-60,97; 668,08</t>
+          <t>-56,92; 666,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 363,14</t>
+          <t>-100,0; 518,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-55,58; 595,7</t>
+          <t>-50,76; 837,93</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 2,17</t>
+          <t>-0,55; 1,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,0</t>
+          <t>-1,54; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,11</t>
+          <t>-1,35; 0,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,35</t>
+          <t>-0,68; 1,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 0,0</t>
+          <t>-1,45; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,43</t>
+          <t>-1,09; 0,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,22</t>
+          <t>-0,36; 1,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,14; -0,12</t>
+          <t>-1,04; -0,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,14</t>
+          <t>-0,85; 0,15</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-65,89; 713,25</t>
+          <t>-64,19; 878,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-92,78; 163,25</t>
+          <t>-93,43; 144,49</t>
         </is>
       </c>
     </row>
@@ -1549,12 +1549,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0,0; 1,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,07</t>
+          <t>0,0; 2,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,0</t>
+          <t>-2,27; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,25</t>
+          <t>-1,86; 0,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 0,11</t>
+          <t>-1,78; 0,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,14</t>
+          <t>-1,04; 0,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,67</t>
+          <t>-0,68; 0,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,44</t>
+          <t>-0,62; 0,47</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-95,59; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,77</t>
+          <t>-1,45; 0,78</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,8</t>
+          <t>-1,76; 0,8</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,65</t>
+          <t>-1,62; 0,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,0</t>
+          <t>-2,28; 0,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,0</t>
+          <t>-2,44; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,28</t>
+          <t>-2,53; 0,31</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 0,12</t>
+          <t>-1,44; 0,15</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,16</t>
+          <t>-1,44; 0,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,35</t>
+          <t>-1,34; 0,33</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-93,88; —</t>
+          <t>-93,95; 224,77</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,88</t>
+          <t>0,08; 4,03</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -1991,37 +1991,37 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 1,75</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 0,0</t>
+          <t>-4,44; 0,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,6</t>
+          <t>-2,26; 2,05</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 0,26</t>
+          <t>-3,81; 0,26</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,96</t>
+          <t>-1,56; 0,88</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,01</t>
+          <t>-1,47; 1,22</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 0,38</t>
+          <t>-1,63; 0,34</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 0,68</t>
+          <t>-0,08; 0,76</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,05</t>
+          <t>-0,48; 0,08</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 0,49</t>
+          <t>-0,24; 0,5</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 0,46</t>
+          <t>-0,33; 0,47</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,0</t>
+          <t>-0,66; -0,02</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,15</t>
+          <t>-0,51; 0,16</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 0,46</t>
+          <t>-0,1; 0,45</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,5; -0,05</t>
+          <t>-0,48; -0,05</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,22</t>
+          <t>-0,27; 0,21</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-22,48; 342,78</t>
+          <t>-29,22; 394,86</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-91,41; 50,28</t>
+          <t>-92,62; 58,92</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-49,4; 246,07</t>
+          <t>-50,8; 280,4</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-42,55; 144,21</t>
+          <t>-45,23; 130,68</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-89,73; 17,98</t>
+          <t>-90,01; 5,38</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-66,9; 51,63</t>
+          <t>-66,55; 49,69</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 149,96</t>
+          <t>-20,57; 137,44</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-85,2; -15,72</t>
+          <t>-83,67; -10,35</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-47,82; 68,19</t>
+          <t>-49,04; 65,62</t>
         </is>
       </c>
     </row>
